--- a/output/RP2_Stats.xlsx
+++ b/output/RP2_Stats.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="696" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B58E698-6A62-4A38-B778-89638CB53D73}"/>
   <bookViews>
-    <workbookView xWindow="1272" yWindow="3384" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1272" yWindow="3384" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conception and Status" sheetId="4" r:id="rId1"/>
@@ -599,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB590351-3240-4A2A-A0FB-32949D4B0502}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -1392,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
